--- a/test_物件管理/test_物件管理.xlsx
+++ b/test_物件管理/test_物件管理.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="IN_001" sheetId="1" r:id="rId1"/>
     <sheet name="EXPECT_001" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="テストケース" sheetId="4" r:id="rId4"/>
+    <sheet name="テストケース" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="213">
   <si>
     <t>URL:</t>
     <phoneticPr fontId="1"/>
@@ -168,32 +167,439 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力データ1</t>
+    <t>EXPECT_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.001-001-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FORM ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIELD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名称</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FIELD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 優子</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CLICK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//*[@id="parkinglot_form"]/div/div[1]/div[13]/div/button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_send_to_admin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申込者および契約者リスト管理員に送付</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ap_parking_lot</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>deleted_date</t>
+  </si>
+  <si>
+    <t>pref_code</t>
+  </si>
+  <si>
+    <t>city_code</t>
+  </si>
+  <si>
+    <t>other_name</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>lender</t>
+  </si>
+  <si>
+    <t>car_count</t>
+  </si>
+  <si>
+    <t>has_turntable</t>
+  </si>
+  <si>
+    <t>has_palette</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>admin_kana</t>
+  </si>
+  <si>
+    <t>admin_tel</t>
+  </si>
+  <si>
+    <t>admin_time</t>
+  </si>
+  <si>
+    <t>building_management_company_id</t>
+  </si>
+  <si>
+    <t>lease_management_company_id</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>free_end_date</t>
+  </si>
+  <si>
+    <t>has_call_center</t>
+  </si>
+  <si>
+    <t>has_tenant_sign</t>
+  </si>
+  <si>
+    <t>is_existed_contractor_allowed</t>
+  </si>
+  <si>
+    <t>is_new_contractor_allowed</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>time_limit_comment</t>
+  </si>
+  <si>
+    <t>transit_pass_comment</t>
+  </si>
+  <si>
+    <t>required_insurance</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>subscription_list_send_type</t>
+  </si>
+  <si>
+    <t>is_required_try_putting</t>
+  </si>
+  <si>
+    <t>building_type</t>
+  </si>
+  <si>
+    <t>gate_defect_contact_company</t>
+  </si>
+  <si>
+    <t>gate_defect_contact_tel</t>
+  </si>
+  <si>
+    <t>gate_defect_management_no</t>
+  </si>
+  <si>
+    <t>has_time_limit</t>
+  </si>
+  <si>
+    <t>publish_receipt</t>
+  </si>
+  <si>
+    <t>management_type</t>
+  </si>
+  <si>
+    <t>is_visible</t>
+  </si>
+  <si>
+    <t>machine_defect_contact_company1</t>
+  </si>
+  <si>
+    <t>machine_defect_contact_company2</t>
+  </si>
+  <si>
+    <t>machine_defect_contact_tel1</t>
+  </si>
+  <si>
+    <t>machine_defect_contact_tel2</t>
+  </si>
+  <si>
+    <t>machine_defect_management_no1</t>
+  </si>
+  <si>
+    <t>machine_defect_management_no2</t>
+  </si>
+  <si>
+    <t>cancellation_notify_month</t>
+  </si>
+  <si>
+    <t>sublease_period</t>
+  </si>
+  <si>
+    <t>has_transit_pass</t>
+  </si>
+  <si>
+    <t>immediately_return</t>
+  </si>
+  <si>
+    <t>prior_explanation</t>
+  </si>
+  <si>
+    <t>required_receipt</t>
+  </si>
+  <si>
+    <t>is_public_address</t>
+  </si>
+  <si>
+    <t>is_public_address_on_map</t>
+  </si>
+  <si>
+    <t>is_public_name</t>
+  </si>
+  <si>
+    <t>admin_email</t>
+  </si>
+  <si>
+    <t>is_send_to_admin</t>
+  </si>
+  <si>
+    <t>admin_fax</t>
+  </si>
+  <si>
+    <t>try_putting_comment</t>
+  </si>
+  <si>
+    <t>required_send_fax</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(254)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2017/12/18 09:08:29</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ｸﾞﾗﾝｼﾃｨﾃﾞｭｱﾙｽﾃｰｼﾞ ﾗ･ﾙｰﾁｪ　（ラルーチェ）</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>13110</t>
+  </si>
+  <si>
+    <t>荒川区</t>
+  </si>
+  <si>
+    <t>西日暮里1-27-16</t>
+  </si>
+  <si>
+    <t>139.7749925</t>
+  </si>
+  <si>
+    <t>35.7342013</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9999/12/31</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>当駐車場の入出庫可能時間帯は次の通りです。平日：8時～19時まで/ 土曜：8時～17時まで/ 日祭日・年末年始（12/30～1/3）：利用不可</t>
+  </si>
+  <si>
+    <t>前面道路が歩行者専用道路で日曜祝日10時～17時は通行許可証が必要です。 _x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）</t>
+  </si>
+  <si>
+    <t>＜バイナリ＞</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>入力データ</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力データ2</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力データ3</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXPECT_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期待結果1</t>
+    <t>期待結果</t>
     <rPh sb="0" eb="2">
       <t>キタイ</t>
     </rPh>
@@ -203,117 +609,210 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期待結果2</t>
+    <t>SELECT created_date,updated_date,is_deleted,deleted_date,code,name,kana,post_code,pref_code,pref_name,city_code,city_name,town_name,aza_name,other_name,lng,lat,owner,lender,car_count,has_turntable,has_palette,admin_name,admin_kana,admin_tel,admin_time,building_management_company_id,lease_management_company_id,staff_id,end_date,free_end_date,has_call_center,has_tenant_sign,is_existed_contractor_allowed,is_new_contractor_allowed,start_date,time_limit_comment,transit_pass_comment,required_insurance,point,subscription_list_send_type,is_required_try_putting,building_type,gate_defect_contact_company,gate_defect_contact_tel,gate_defect_management_no,has_time_limit,publish_receipt,management_type,is_visible,machine_defect_contact_company1,machine_defect_contact_company2,machine_defect_contact_tel1,machine_defect_contact_tel2,machine_defect_management_no1,machine_defect_management_no2,cancellation_notify_month,sublease_period,has_transit_pass,immediately_return,prior_explanation,required_receipt,is_public_address,is_public_address_on_map,is_public_name,admin_email,is_send_to_admin,public_name,admin_fax,try_putting_comment,required_send_fax FROM ap_parking_lot WHERE code = 102150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/12/18 09:08:30</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13111</t>
+  </si>
+  <si>
+    <t>西日暮里1-27-17</t>
+  </si>
+  <si>
+    <t>139.7749926</t>
+  </si>
+  <si>
+    <t>35.7342014</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9999/12/32</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>当駐車場の入出庫可能時間帯は次の通りです。平日：8時～19時まで/ 土曜：8時～17時まで/ 日祭日・年末年始（12/30～1/4）：利用不可</t>
+  </si>
+  <si>
+    <t>前面道路が歩行者専用道路で日曜祝日10時～17時は通行許可証が必要です。 _x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0111）</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2017/12/18 09:08:31</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13112</t>
+  </si>
+  <si>
+    <t>西日暮里1-27-18</t>
+  </si>
+  <si>
+    <t>139.7749927</t>
+  </si>
+  <si>
+    <t>35.7342015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9999/12/33</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>当駐車場の入出庫可能時間帯は次の通りです。平日：8時～19時まで/ 土曜：8時～17時まで/ 日祭日・年末年始（12/30～1/5）：利用不可</t>
+  </si>
+  <si>
+    <t>前面道路が歩行者専用道路で日曜祝日10時～17時は通行許可証が必要です。 _x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0112）</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2017/12/18 09:08:32</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13113</t>
+  </si>
+  <si>
+    <t>西日暮里1-27-19</t>
+  </si>
+  <si>
+    <t>139.7749928</t>
+  </si>
+  <si>
+    <t>35.7342016</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9999/12/34</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>当駐車場の入出庫可能時間帯は次の通りです。平日：8時～19時まで/ 土曜：8時～17時まで/ 日祭日・年末年始（12/30～1/6）：利用不可</t>
+  </si>
+  <si>
+    <t>前面道路が歩行者専用道路で日曜祝日10時～17時は通行許可証が必要です。 _x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0113）</t>
+  </si>
+  <si>
+    <t>2017/12/18 09:08:33</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13114</t>
+  </si>
+  <si>
+    <t>西日暮里1-27-20</t>
+  </si>
+  <si>
+    <t>139.7749929</t>
+  </si>
+  <si>
+    <t>35.7342017</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9999/12/35</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>当駐車場の入出庫可能時間帯は次の通りです。平日：8時～19時まで/ 土曜：8時～17時まで/ 日祭日・年末年始（12/30～1/7）：利用不可</t>
+  </si>
+  <si>
+    <t>前面道路が歩行者専用道路で日曜祝日10時～17時は通行許可証が必要です。 _x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0110）_x000D_
+申請書類は弊社が用意致しますが、 申請手続きは契約者様にお願い致します。（上野警察署 交通規制係：03-3847-0114）</t>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>三菱地所</t>
     <rPh sb="0" eb="2">
-      <t>キタイ</t>
+      <t>ミツビシ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ケッカ</t>
+      <t>ジショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期待結果3</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
+    <t>所有者</t>
+    <rPh sb="0" eb="3">
+      <t>ショユウシャ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lender</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期待結果4</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
+    <t>asdfsdfdfd</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期待結果5</t>
-    <rPh sb="0" eb="2">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.001-001-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FORM ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FIELD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名称</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力値</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FIELD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木 優子</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CLICK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>//*[@id="parkinglot_form"]/div/div[1]/div[13]/div/button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>is_send_to_admin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>申込者および契約者リスト管理員に送付</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +885,54 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +969,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -455,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -474,6 +1037,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,9 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -803,7 +1391,7 @@
     </row>
     <row r="3" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -812,18 +1400,18 @@
     <row r="4" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -837,7 +1425,7 @@
     </row>
     <row r="6" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>4</v>
@@ -851,7 +1439,7 @@
     </row>
     <row r="7" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -863,7 +1451,7 @@
     </row>
     <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>11</v>
@@ -877,7 +1465,7 @@
     </row>
     <row r="9" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
@@ -891,7 +1479,7 @@
     </row>
     <row r="10" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>7</v>
@@ -905,7 +1493,7 @@
     </row>
     <row r="11" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
@@ -919,7 +1507,7 @@
     </row>
     <row r="12" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>9</v>
@@ -933,7 +1521,7 @@
     </row>
     <row r="13" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -947,13 +1535,13 @@
     </row>
     <row r="14" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>22</v>
@@ -961,24 +1549,49 @@
     </row>
     <row r="15" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -990,14 +1603,1719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:BS10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS4" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BN5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS5" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR6" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS6" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX7" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS7" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL8" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX8" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS8" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX9" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO9" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS9" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK10" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL10" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS10" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1005,70 +3323,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J5"/>
+  <dimension ref="B4:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test_物件管理/test_物件管理.xlsx
+++ b/test_物件管理/test_物件管理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="EXPECT_001" sheetId="2" r:id="rId3"/>
     <sheet name="テストケース" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -802,25 +802,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DELETE FROM ap_parking_lot;</t>
+    <t>DELETE FROM ap_parking_lot</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -843,7 +843,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -882,7 +882,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -904,14 +904,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -928,7 +928,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1113,8 +1113,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 26" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,7 +1201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1236,7 +1235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1412,14 +1410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="18" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="18" customWidth="1"/>
@@ -1428,7 +1426,7 @@
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="14.25">
       <c r="A2" s="19" t="s">
         <v>235</v>
       </c>
@@ -1441,7 +1439,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="14.25">
       <c r="A3" s="19" t="s">
         <v>235</v>
       </c>
@@ -1454,7 +1452,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="14.25">
       <c r="A4" s="19" t="s">
         <v>235</v>
       </c>
@@ -1467,7 +1465,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="14.25">
       <c r="A5" s="19" t="s">
         <v>235</v>
       </c>
@@ -1480,7 +1478,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="14.25">
       <c r="A6" s="19" t="s">
         <v>235</v>
       </c>
@@ -1493,7 +1491,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1502,7 +1500,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:19" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="20" customFormat="1" ht="14.25">
       <c r="A8" s="19" t="s">
         <v>176</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="20" customFormat="1">
       <c r="B9" s="21" t="s">
         <v>186</v>
       </c>
@@ -1566,7 +1564,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="20" customFormat="1">
       <c r="B10" s="6" t="s">
         <v>180</v>
       </c>
@@ -1622,7 +1620,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="20" customFormat="1">
       <c r="B11" s="7" t="s">
         <v>120</v>
       </c>
@@ -1678,7 +1676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="20" customFormat="1">
       <c r="B12" s="7" t="s">
         <v>132</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="20" customFormat="1">
       <c r="B13" s="7" t="s">
         <v>144</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="20" customFormat="1">
       <c r="B14" s="7" t="s">
         <v>114</v>
       </c>
@@ -1846,7 +1844,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="20" customFormat="1">
       <c r="B15" s="7" t="s">
         <v>127</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="20" customFormat="1">
       <c r="B16" s="7" t="s">
         <v>139</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" s="20" customFormat="1">
       <c r="B17" s="7" t="s">
         <v>151</v>
       </c>
@@ -2014,8 +2012,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" s="20" customFormat="1"/>
+    <row r="20" spans="1:19" ht="14.25">
       <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
@@ -2028,7 +2026,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="B21" s="21" t="s">
         <v>178</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22" s="20"/>
       <c r="B22" s="6" t="s">
         <v>180</v>
@@ -2069,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>120</v>
@@ -2090,7 +2088,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="14.25">
       <c r="A26" s="19" t="s">
         <v>176</v>
       </c>
@@ -2106,7 +2104,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="B27" s="21" t="s">
         <v>214</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="20"/>
       <c r="B28" s="6" t="s">
         <v>180</v>
@@ -2165,7 +2163,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
         <v>120</v>
@@ -2195,7 +2193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
         <v>132</v>
@@ -2225,7 +2223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="20"/>
       <c r="B31" s="7" t="s">
         <v>144</v>
@@ -2255,7 +2253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="20"/>
       <c r="B32" s="7" t="s">
         <v>114</v>
@@ -2285,7 +2283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="20"/>
       <c r="B33" s="7" t="s">
         <v>127</v>
@@ -2315,7 +2313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="A34" s="20"/>
       <c r="B34" s="7" t="s">
         <v>139</v>
@@ -2345,7 +2343,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="20"/>
       <c r="B35" s="7" t="s">
         <v>151</v>
@@ -2375,7 +2373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" s="20" customFormat="1" ht="14.25">
       <c r="A38" s="19" t="s">
         <v>176</v>
       </c>
@@ -2383,7 +2381,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" s="20" customFormat="1">
       <c r="B39" s="21" t="s">
         <v>219</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" s="20" customFormat="1">
       <c r="B40" s="6" t="s">
         <v>180</v>
       </c>
@@ -2459,7 +2457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" s="20" customFormat="1">
       <c r="B41" s="7" t="s">
         <v>120</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" s="20" customFormat="1">
       <c r="B42" s="7" t="s">
         <v>132</v>
       </c>
@@ -2535,7 +2533,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" s="20" customFormat="1">
       <c r="B43" s="7" t="s">
         <v>144</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:13" s="20" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,14 +2580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="18" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="18" customWidth="1"/>
@@ -2599,7 +2597,7 @@
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="12" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="12" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="12" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="23" t="s">
         <v>4</v>
@@ -2627,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="12" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -2635,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="25">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="12" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="12" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="12" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="12" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="12" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="12" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="12" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="12" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="12" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="12" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="12" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="12" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="12" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>43</v>
       </c>
@@ -2812,7 +2810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="14.25">
       <c r="A23" s="16" t="s">
         <v>43</v>
       </c>
@@ -2828,19 +2826,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BS49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:71" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:71" s="2" customFormat="1">
       <c r="B3" s="3" t="s">
         <v>245</v>
       </c>
@@ -2922,7 +2920,7 @@
       <c r="BR3" s="4"/>
       <c r="BS3" s="4"/>
     </row>
-    <row r="4" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:71" s="2" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:71" s="2" customFormat="1">
       <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:71" s="2" customFormat="1">
       <c r="B6" s="7" t="s">
         <v>246</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:71" s="2" customFormat="1">
       <c r="B7" s="7" t="s">
         <v>246</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:71" s="2" customFormat="1">
       <c r="B8" s="7" t="s">
         <v>246</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:71" s="2" customFormat="1">
       <c r="B9" s="7" t="s">
         <v>246</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:71" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" s="20" customFormat="1" ht="14.25">
       <c r="A12" s="19" t="s">
         <v>176</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:71" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" s="20" customFormat="1" ht="12">
       <c r="B13" s="21" t="s">
         <v>240</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:71" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" s="20" customFormat="1" ht="12">
       <c r="B14" s="6" t="s">
         <v>180</v>
       </c>
@@ -4314,7 +4312,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:71" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" s="20" customFormat="1" ht="12">
       <c r="B15" s="7" t="s">
         <v>120</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:71" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" s="20" customFormat="1" ht="12">
       <c r="B16" s="7" t="s">
         <v>132</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" s="20" customFormat="1" ht="12">
       <c r="B17" s="7" t="s">
         <v>144</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="12">
       <c r="B18" s="7" t="s">
         <v>114</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" s="20" customFormat="1" ht="12">
       <c r="B19" s="7" t="s">
         <v>127</v>
       </c>
@@ -4594,7 +4592,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" s="20" customFormat="1" ht="12">
       <c r="B20" s="7" t="s">
         <v>139</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" s="20" customFormat="1" ht="12">
       <c r="B21" s="7" t="s">
         <v>151</v>
       </c>
@@ -4706,9 +4704,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" s="20" customFormat="1" ht="12"/>
+    <row r="23" spans="1:19" s="18" customFormat="1" ht="12"/>
+    <row r="24" spans="1:19" s="18" customFormat="1" ht="14.25">
       <c r="A24" s="19" t="s">
         <v>176</v>
       </c>
@@ -4721,7 +4719,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="B25" s="21" t="s">
         <v>241</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="A26" s="20"/>
       <c r="B26" s="6" t="s">
         <v>180</v>
@@ -4762,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
         <v>120</v>
@@ -4783,9 +4781,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" s="18" customFormat="1" ht="12"/>
+    <row r="29" spans="1:19" s="18" customFormat="1" ht="12"/>
+    <row r="30" spans="1:19" s="18" customFormat="1" ht="14.25">
       <c r="A30" s="19" t="s">
         <v>176</v>
       </c>
@@ -4801,7 +4799,7 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="B31" s="21" t="s">
         <v>242</v>
       </c>
@@ -4830,7 +4828,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>180</v>
@@ -4860,7 +4858,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A33" s="20"/>
       <c r="B33" s="7" t="s">
         <v>120</v>
@@ -4890,7 +4888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A34" s="20"/>
       <c r="B34" s="7" t="s">
         <v>132</v>
@@ -4920,7 +4918,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A35" s="20"/>
       <c r="B35" s="7" t="s">
         <v>144</v>
@@ -4950,7 +4948,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A36" s="20"/>
       <c r="B36" s="7" t="s">
         <v>114</v>
@@ -4980,7 +4978,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A37" s="20"/>
       <c r="B37" s="7" t="s">
         <v>127</v>
@@ -5010,7 +5008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A38" s="20"/>
       <c r="B38" s="7" t="s">
         <v>139</v>
@@ -5040,7 +5038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" s="18" customFormat="1" ht="12">
       <c r="A39" s="20"/>
       <c r="B39" s="7" t="s">
         <v>151</v>
@@ -5070,9 +5068,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:13" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:13" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" s="18" customFormat="1" ht="12"/>
+    <row r="41" spans="1:13" s="18" customFormat="1" ht="12"/>
+    <row r="42" spans="1:13" s="20" customFormat="1" ht="14.25">
       <c r="A42" s="19" t="s">
         <v>176</v>
       </c>
@@ -5080,7 +5078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" s="20" customFormat="1" ht="12">
       <c r="B43" s="21" t="s">
         <v>243</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" s="20" customFormat="1" ht="12">
       <c r="B44" s="6" t="s">
         <v>180</v>
       </c>
@@ -5156,7 +5154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" s="20" customFormat="1" ht="12">
       <c r="B45" s="7" t="s">
         <v>120</v>
       </c>
@@ -5194,7 +5192,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" s="20" customFormat="1" ht="12">
       <c r="B46" s="7" t="s">
         <v>132</v>
       </c>
@@ -5232,7 +5230,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" s="20" customFormat="1" ht="12">
       <c r="B47" s="7" t="s">
         <v>144</v>
       </c>
@@ -5270,8 +5268,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
-    <row r="49" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:13" s="20" customFormat="1" ht="12"/>
+    <row r="49" s="18" customFormat="1" ht="12"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5279,14 +5277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="9" customWidth="1"/>
     <col min="2" max="6" width="12.625" style="9" customWidth="1"/>
@@ -5295,7 +5293,7 @@
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4" s="11" t="s">
         <v>167</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="9" t="s">
         <v>170</v>
       </c>
